--- a/module3/branchingvsNonBranching.xlsx
+++ b/module3/branchingvsNonBranching.xlsx
@@ -8,35 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wilson/Documents/intro_GPU/EN605.617/module3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D91AC3A-E37F-974C-97A5-201868BBDFBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2213FD7F-EECF-9045-85B2-7C62188620B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28920" windowHeight="13460" xr2:uid="{6F93EAA9-097B-9146-ADC9-7F0B6EF4B4BC}"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="22520" windowHeight="13460" xr2:uid="{6F93EAA9-097B-9146-ADC9-7F0B6EF4B4BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$18</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$4:$A$18</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$4:$B$18</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$3</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$4:$C$18</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$4:$A$18</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$4:$B$18</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$3</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$4:$C$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4:$B$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$4:$C$18</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$4:$A$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$4:$B$18</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$4:$C$18</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Without Branching</t>
   </si>
@@ -64,10 +42,13 @@
     <t>Iteration</t>
   </si>
   <si>
-    <t>The time does not vary by too much between the two different functions.</t>
+    <t>Time (milliseconds)</t>
   </si>
   <si>
-    <t>Time (milliseconds)</t>
+    <t>with Branching (Host)</t>
+  </si>
+  <si>
+    <t>The time does not vary by too much between having a branch function and not having a branch function. I think he reason for this is that the effect of this branching was not noticable because I we are not dealing with a lot of data. Maybe in the future it will be more noticeble. In addition, the function with branching in the kerner had the same execution time as in the host.</t>
   </si>
 </sst>
 </file>
@@ -103,7 +84,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -115,32 +96,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -178,11 +133,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -193,26 +177,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,6 +601,159 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-353F-5A43-9A1C-114FB7DFD485}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>with Branching (Host)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-D25D-9840-9CEB-5D208C71D6D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1846,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE51FFB-87E6-C741-800E-8F0EE6A2B831}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1855,25 +1995,28 @@
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8"/>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1883,187 +2026,235 @@
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
         <v>4</v>
       </c>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
         <v>4</v>
       </c>
+      <c r="D15" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="6">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="6">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="4">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="6">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
         <v>4</v>
       </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+    <row r="20" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
